--- a/Base de Datos/Subida de Datos/Canton/Canton.xlsx
+++ b/Base de Datos/Subida de Datos/Canton/Canton.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omerb\OneDrive\Documents\java Cuarto\JJ\Canton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C76348A-2E2A-4DB8-8DA5-31FAC2D6660C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE9A22E-2458-4F4A-BBB3-421136957C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$224</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="224">
   <si>
     <t>id_canton</t>
   </si>
@@ -694,6 +697,9 @@
   </si>
   <si>
     <t>EL PAN</t>
+  </si>
+  <si>
+    <t>CHILLA</t>
   </si>
 </sst>
 </file>
@@ -1022,13 +1028,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C223"/>
+  <dimension ref="A1:C224"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="26.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1670,10 +1679,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B59" t="s">
-        <v>45</v>
+        <v>223</v>
       </c>
       <c r="C59">
         <v>7</v>
@@ -1681,10 +1690,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B60" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C60">
         <v>7</v>
@@ -1692,10 +1701,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B61" t="s">
-        <v>114</v>
+        <v>48</v>
       </c>
       <c r="C61">
         <v>7</v>
@@ -1703,10 +1712,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B62" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="C62">
         <v>7</v>
@@ -1714,10 +1723,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B63" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="C63">
         <v>7</v>
@@ -1725,10 +1734,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B64" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="C64">
         <v>7</v>
@@ -1736,10 +1745,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B65" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="C65">
         <v>7</v>
@@ -1747,10 +1756,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B66" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C66">
         <v>7</v>
@@ -1758,10 +1767,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B67" t="s">
-        <v>209</v>
+        <v>109</v>
       </c>
       <c r="C67">
         <v>7</v>
@@ -1769,21 +1778,21 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>801</v>
+        <v>714</v>
       </c>
       <c r="B68" t="s">
-        <v>126</v>
+        <v>209</v>
       </c>
       <c r="C68">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B69" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="C69">
         <v>8</v>
@@ -1791,10 +1800,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B70" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="C70">
         <v>8</v>
@@ -1802,10 +1811,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B71" t="s">
-        <v>4</v>
+        <v>171</v>
       </c>
       <c r="C71">
         <v>8</v>
@@ -1813,10 +1822,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B72" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C72">
         <v>8</v>
@@ -1824,10 +1833,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B73" t="s">
-        <v>144</v>
+        <v>86</v>
       </c>
       <c r="C73">
         <v>8</v>
@@ -1835,10 +1844,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B74" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="C74">
         <v>8</v>
@@ -1846,32 +1855,32 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B75" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="C75">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>901</v>
+        <v>808</v>
       </c>
       <c r="B76" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="C76">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B77" t="s">
-        <v>177</v>
+        <v>11</v>
       </c>
       <c r="C77">
         <v>9</v>
@@ -1879,10 +1888,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B78" t="s">
-        <v>84</v>
+        <v>177</v>
       </c>
       <c r="C78">
         <v>9</v>
@@ -1890,10 +1899,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B79" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="C79">
         <v>9</v>
@@ -1901,10 +1910,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B80" t="s">
-        <v>161</v>
+        <v>120</v>
       </c>
       <c r="C80">
         <v>9</v>
@@ -1912,10 +1921,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B81" t="s">
-        <v>21</v>
+        <v>161</v>
       </c>
       <c r="C81">
         <v>9</v>
@@ -1923,10 +1932,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B82" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C82">
         <v>9</v>
@@ -1934,10 +1943,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B83" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="C83">
         <v>9</v>
@@ -1945,10 +1954,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B84" t="s">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="C84">
         <v>9</v>
@@ -1956,10 +1965,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B85" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="C85">
         <v>9</v>
@@ -1967,10 +1976,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B86" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="C86">
         <v>9</v>
@@ -1978,10 +1987,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B87" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="C87">
         <v>9</v>
@@ -1989,10 +1998,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B88" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C88">
         <v>9</v>
@@ -2000,10 +2009,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B89" t="s">
-        <v>187</v>
+        <v>108</v>
       </c>
       <c r="C89">
         <v>9</v>
@@ -2011,10 +2020,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B90" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="C90">
         <v>9</v>
@@ -2022,10 +2031,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B91" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="C91">
         <v>9</v>
@@ -2033,10 +2042,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B92" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C92">
         <v>9</v>
@@ -2044,10 +2053,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B93" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C93">
         <v>9</v>
@@ -2055,10 +2064,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B94" t="s">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="C94">
         <v>9</v>
@@ -2066,10 +2075,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B95" t="s">
-        <v>68</v>
+        <v>137</v>
       </c>
       <c r="C95">
         <v>9</v>
@@ -2077,10 +2086,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B96" t="s">
-        <v>127</v>
+        <v>68</v>
       </c>
       <c r="C96">
         <v>9</v>
@@ -2088,10 +2097,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B97" t="s">
-        <v>166</v>
+        <v>127</v>
       </c>
       <c r="C97">
         <v>9</v>
@@ -2099,10 +2108,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B98" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C98">
         <v>9</v>
@@ -2110,10 +2119,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B99" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="C99">
         <v>9</v>
@@ -2121,10 +2130,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B100" t="s">
-        <v>75</v>
+        <v>189</v>
       </c>
       <c r="C100">
         <v>9</v>
@@ -2132,21 +2141,21 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>1001</v>
+        <v>928</v>
       </c>
       <c r="B101" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="C101">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B102" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C102">
         <v>10</v>
@@ -2154,10 +2163,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B103" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="C103">
         <v>10</v>
@@ -2165,10 +2174,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B104" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="C104">
         <v>10</v>
@@ -2176,10 +2185,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B105" t="s">
-        <v>168</v>
+        <v>19</v>
       </c>
       <c r="C105">
         <v>10</v>
@@ -2187,10 +2196,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B106" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="C106">
         <v>10</v>
@@ -2198,21 +2207,21 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>1101</v>
+        <v>1006</v>
       </c>
       <c r="B107" t="s">
-        <v>9</v>
+        <v>130</v>
       </c>
       <c r="C107">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B108" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="C108">
         <v>11</v>
@@ -2220,10 +2229,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B109" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C109">
         <v>11</v>
@@ -2231,10 +2240,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B110" t="s">
-        <v>204</v>
+        <v>12</v>
       </c>
       <c r="C110">
         <v>11</v>
@@ -2242,10 +2251,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B111" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C111">
         <v>11</v>
@@ -2253,10 +2262,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B112" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="C112">
         <v>11</v>
@@ -2264,10 +2273,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B113" t="s">
-        <v>46</v>
+        <v>210</v>
       </c>
       <c r="C113">
         <v>11</v>
@@ -2275,10 +2284,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B114" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C114">
         <v>11</v>
@@ -2286,10 +2295,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B115" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C115">
         <v>11</v>
@@ -2297,10 +2306,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B116" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="C116">
         <v>11</v>
@@ -2308,10 +2317,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B117" t="s">
-        <v>192</v>
+        <v>90</v>
       </c>
       <c r="C117">
         <v>11</v>
@@ -2319,10 +2328,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B118" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="C118">
         <v>11</v>
@@ -2330,10 +2339,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B119" t="s">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="C119">
         <v>11</v>
@@ -2341,10 +2350,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B120" t="s">
-        <v>180</v>
+        <v>133</v>
       </c>
       <c r="C120">
         <v>11</v>
@@ -2352,10 +2361,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B121" t="s">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="C121">
         <v>11</v>
@@ -2363,10 +2372,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B122" t="s">
-        <v>211</v>
+        <v>20</v>
       </c>
       <c r="C122">
         <v>11</v>
@@ -2374,21 +2383,21 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>1201</v>
+        <v>1116</v>
       </c>
       <c r="B123" t="s">
-        <v>71</v>
+        <v>211</v>
       </c>
       <c r="C123">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B124" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="C124">
         <v>12</v>
@@ -2396,10 +2405,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B125" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="C125">
         <v>12</v>
@@ -2407,10 +2416,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B126" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="C126">
         <v>12</v>
@@ -2418,10 +2427,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B127" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="C127">
         <v>12</v>
@@ -2429,10 +2438,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B128" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
       <c r="C128">
         <v>12</v>
@@ -2440,10 +2449,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B129" t="s">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="C129">
         <v>12</v>
@@ -2451,10 +2460,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B130" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C130">
         <v>12</v>
@@ -2462,10 +2471,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B131" t="s">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="C131">
         <v>12</v>
@@ -2473,10 +2482,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B132" t="s">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="C132">
         <v>12</v>
@@ -2484,10 +2493,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B133" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="C133">
         <v>12</v>
@@ -2495,10 +2504,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B134" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="C134">
         <v>12</v>
@@ -2506,10 +2515,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B135" t="s">
-        <v>156</v>
+        <v>103</v>
       </c>
       <c r="C135">
         <v>12</v>
@@ -2517,21 +2526,21 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>1301</v>
+        <v>1213</v>
       </c>
       <c r="B136" t="s">
-        <v>81</v>
+        <v>156</v>
       </c>
       <c r="C136">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B137" t="s">
-        <v>149</v>
+        <v>81</v>
       </c>
       <c r="C137">
         <v>13</v>
@@ -2539,10 +2548,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="B138" t="s">
-        <v>64</v>
+        <v>149</v>
       </c>
       <c r="C138">
         <v>13</v>
@@ -2550,10 +2559,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="B139" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="C139">
         <v>13</v>
@@ -2561,10 +2570,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="B140" t="s">
-        <v>142</v>
+        <v>22</v>
       </c>
       <c r="C140">
         <v>13</v>
@@ -2572,10 +2581,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="B141" t="s">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="C141">
         <v>13</v>
@@ -2583,10 +2592,10 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="B142" t="s">
-        <v>140</v>
+        <v>51</v>
       </c>
       <c r="C142">
         <v>13</v>
@@ -2594,10 +2603,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="B143" t="s">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="C143">
         <v>13</v>
@@ -2605,10 +2614,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="B144" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="C144">
         <v>13</v>
@@ -2616,10 +2625,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="B145" t="s">
-        <v>175</v>
+        <v>73</v>
       </c>
       <c r="C145">
         <v>13</v>
@@ -2627,10 +2636,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="B146" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C146">
         <v>13</v>
@@ -2638,10 +2647,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="B147" t="s">
-        <v>52</v>
+        <v>174</v>
       </c>
       <c r="C147">
         <v>13</v>
@@ -2649,10 +2658,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="B148" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C148">
         <v>13</v>
@@ -2660,10 +2669,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B149" t="s">
-        <v>151</v>
+        <v>35</v>
       </c>
       <c r="C149">
         <v>13</v>
@@ -2671,10 +2680,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="B150" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C150">
         <v>13</v>
@@ -2682,10 +2691,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="B151" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="C151">
         <v>13</v>
@@ -2693,10 +2702,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="B152" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C152">
         <v>13</v>
@@ -2704,10 +2713,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="B153" t="s">
-        <v>211</v>
+        <v>129</v>
       </c>
       <c r="C153">
         <v>13</v>
@@ -2715,10 +2724,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="B154" t="s">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="C154">
         <v>13</v>
@@ -2726,10 +2735,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="B155" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="C155">
         <v>13</v>
@@ -2737,10 +2746,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="B156" t="s">
-        <v>141</v>
+        <v>205</v>
       </c>
       <c r="C156">
         <v>13</v>
@@ -2748,10 +2757,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="B157" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="C157">
         <v>13</v>
@@ -2759,21 +2768,21 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>1401</v>
+        <v>1322</v>
       </c>
       <c r="B158" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="C158">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B159" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="C159">
         <v>14</v>
@@ -2781,10 +2790,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="B160" t="s">
-        <v>183</v>
+        <v>135</v>
       </c>
       <c r="C160">
         <v>14</v>
@@ -2792,10 +2801,10 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="B161" t="s">
-        <v>117</v>
+        <v>183</v>
       </c>
       <c r="C161">
         <v>14</v>
@@ -2803,10 +2812,10 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="B162" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="C162">
         <v>14</v>
@@ -2814,10 +2823,10 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="B163" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C163">
         <v>14</v>
@@ -2825,10 +2834,10 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B164" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C164">
         <v>14</v>
@@ -2836,10 +2845,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B165" t="s">
-        <v>215</v>
+        <v>143</v>
       </c>
       <c r="C165">
         <v>14</v>
@@ -2847,10 +2856,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B166" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="C166">
         <v>14</v>
@@ -2858,10 +2867,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B167" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="C167">
         <v>14</v>
@@ -2869,10 +2878,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="B168" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C168">
         <v>14</v>
@@ -2880,10 +2889,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B169" t="s">
-        <v>154</v>
+        <v>216</v>
       </c>
       <c r="C169">
         <v>14</v>
@@ -2891,21 +2900,21 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>1501</v>
+        <v>1412</v>
       </c>
       <c r="B170" t="s">
-        <v>31</v>
+        <v>154</v>
       </c>
       <c r="C170">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="B171" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="C171">
         <v>15</v>
@@ -2913,10 +2922,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="B172" t="s">
-        <v>165</v>
+        <v>54</v>
       </c>
       <c r="C172">
         <v>15</v>
@@ -2924,10 +2933,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="B173" t="s">
-        <v>57</v>
+        <v>165</v>
       </c>
       <c r="C173">
         <v>15</v>
@@ -2935,10 +2944,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="B174" t="s">
-        <v>124</v>
+        <v>57</v>
       </c>
       <c r="C174">
         <v>15</v>
@@ -2946,21 +2955,21 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>1601</v>
+        <v>1509</v>
       </c>
       <c r="B175" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="C175">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="B176" t="s">
-        <v>155</v>
+        <v>59</v>
       </c>
       <c r="C176">
         <v>16</v>
@@ -2968,10 +2977,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="B177" t="s">
-        <v>218</v>
+        <v>155</v>
       </c>
       <c r="C177">
         <v>16</v>
@@ -2979,10 +2988,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="B178" t="s">
-        <v>122</v>
+        <v>218</v>
       </c>
       <c r="C178">
         <v>16</v>
@@ -2990,21 +2999,21 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>1701</v>
+        <v>1604</v>
       </c>
       <c r="B179" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="C179">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="B180" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="C180">
         <v>17</v>
@@ -3012,10 +3021,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="B181" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="C181">
         <v>17</v>
@@ -3023,10 +3032,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="B182" t="s">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="C182">
         <v>17</v>
@@ -3034,10 +3043,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="B183" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="C183">
         <v>17</v>
@@ -3045,10 +3054,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="B184" t="s">
-        <v>195</v>
+        <v>58</v>
       </c>
       <c r="C184">
         <v>17</v>
@@ -3056,10 +3065,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="B185" t="s">
-        <v>106</v>
+        <v>195</v>
       </c>
       <c r="C185">
         <v>17</v>
@@ -3067,10 +3076,10 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="B186" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="C186">
         <v>17</v>
@@ -3078,21 +3087,21 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>1801</v>
+        <v>1709</v>
       </c>
       <c r="B187" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="C187">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="B188" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C188">
         <v>18</v>
@@ -3100,10 +3109,10 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="B189" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="C189">
         <v>18</v>
@@ -3111,10 +3120,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="B190" t="s">
-        <v>217</v>
+        <v>72</v>
       </c>
       <c r="C190">
         <v>18</v>
@@ -3122,10 +3131,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="B191" t="s">
-        <v>178</v>
+        <v>217</v>
       </c>
       <c r="C191">
         <v>18</v>
@@ -3133,10 +3142,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="B192" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="C192">
         <v>18</v>
@@ -3144,10 +3153,10 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="B193" t="s">
-        <v>67</v>
+        <v>163</v>
       </c>
       <c r="C193">
         <v>18</v>
@@ -3155,10 +3164,10 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="B194" t="s">
-        <v>147</v>
+        <v>67</v>
       </c>
       <c r="C194">
         <v>18</v>
@@ -3166,10 +3175,10 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="B195" t="s">
-        <v>207</v>
+        <v>147</v>
       </c>
       <c r="C195">
         <v>18</v>
@@ -3177,21 +3186,21 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>1901</v>
+        <v>1809</v>
       </c>
       <c r="B196" t="s">
-        <v>37</v>
+        <v>207</v>
       </c>
       <c r="C196">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="B197" t="s">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="C197">
         <v>19</v>
@@ -3199,10 +3208,10 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="B198" t="s">
-        <v>184</v>
+        <v>111</v>
       </c>
       <c r="C198">
         <v>19</v>
@@ -3210,10 +3219,10 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="B199" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C199">
         <v>19</v>
@@ -3221,10 +3230,10 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="B200" t="s">
-        <v>115</v>
+        <v>191</v>
       </c>
       <c r="C200">
         <v>19</v>
@@ -3232,10 +3241,10 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="B201" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="C201">
         <v>19</v>
@@ -3243,10 +3252,10 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="B202" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="C202">
         <v>19</v>
@@ -3254,10 +3263,10 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="B203" t="s">
-        <v>6</v>
+        <v>159</v>
       </c>
       <c r="C203">
         <v>19</v>
@@ -3265,10 +3274,10 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="B204" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C204">
         <v>19</v>
@@ -3276,21 +3285,21 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>2001</v>
+        <v>1909</v>
       </c>
       <c r="B205" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C205">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B206" t="s">
-        <v>179</v>
+        <v>14</v>
       </c>
       <c r="C206">
         <v>20</v>
@@ -3298,10 +3307,10 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B207" t="s">
-        <v>121</v>
+        <v>179</v>
       </c>
       <c r="C207">
         <v>20</v>
@@ -3309,21 +3318,21 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>2101</v>
+        <v>2003</v>
       </c>
       <c r="B208" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="C208">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="B209" t="s">
-        <v>169</v>
+        <v>13</v>
       </c>
       <c r="C209">
         <v>21</v>
@@ -3331,10 +3340,10 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="B210" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="C210">
         <v>21</v>
@@ -3342,10 +3351,10 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="B211" t="s">
-        <v>60</v>
+        <v>182</v>
       </c>
       <c r="C211">
         <v>21</v>
@@ -3353,10 +3362,10 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="B212" t="s">
-        <v>221</v>
+        <v>60</v>
       </c>
       <c r="C212">
         <v>21</v>
@@ -3364,10 +3373,10 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="B213" t="s">
-        <v>145</v>
+        <v>221</v>
       </c>
       <c r="C213">
         <v>21</v>
@@ -3375,10 +3384,10 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="B214" t="s">
-        <v>201</v>
+        <v>145</v>
       </c>
       <c r="C214">
         <v>21</v>
@@ -3386,21 +3395,21 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>2201</v>
+        <v>2107</v>
       </c>
       <c r="B215" t="s">
-        <v>28</v>
+        <v>201</v>
       </c>
       <c r="C215">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="B216" t="s">
-        <v>186</v>
+        <v>28</v>
       </c>
       <c r="C216">
         <v>22</v>
@@ -3408,10 +3417,10 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="B217" t="s">
-        <v>24</v>
+        <v>186</v>
       </c>
       <c r="C217">
         <v>22</v>
@@ -3419,10 +3428,10 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="B218" t="s">
-        <v>123</v>
+        <v>24</v>
       </c>
       <c r="C218">
         <v>22</v>
@@ -3430,32 +3439,32 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>2301</v>
+        <v>2204</v>
       </c>
       <c r="B219" t="s">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="C219">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>2401</v>
+        <v>2301</v>
       </c>
       <c r="B220" t="s">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="C220">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="B221" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="C221">
         <v>24</v>
@@ -3463,10 +3472,10 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="B222" t="s">
-        <v>61</v>
+        <v>139</v>
       </c>
       <c r="C222">
         <v>24</v>
@@ -3474,16 +3483,32 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223">
+        <v>2403</v>
+      </c>
+      <c r="B223" t="s">
+        <v>61</v>
+      </c>
+      <c r="C223">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224">
         <v>9004</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B224" t="s">
         <v>40</v>
       </c>
-      <c r="C223">
+      <c r="C224">
         <v>90</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C224" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C224">
+      <sortCondition ref="A2:A224"/>
+    </sortState>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C224">
     <sortCondition ref="A2:A224"/>
   </sortState>
